--- a/lista_cnpj_cetesb.xlsx
+++ b/lista_cnpj_cetesb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8a6583b38bb5bee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://equitasinvestimentos-my.sharepoint.com/personal/somati_dryscapital_com_br/Documents/Documentos/Github/cetesb-cadri-csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{6462B0A5-E31E-40EE-8203-6225C642AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D96B499E-C096-478F-AEB8-AD317B0D757F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{6462B0A5-E31E-40EE-8203-6225C642AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{117DA198-B53B-47F8-B628-90EDC8D97313}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DE139F7B-532B-495F-9E05-5C58AA606F65}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{DE139F7B-532B-495F-9E05-5C58AA606F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>60.409.075/0029-53</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>cnpj</t>
+  </si>
+  <si>
+    <t>00145075000160</t>
+  </si>
+  <si>
+    <t>00320017001017</t>
+  </si>
+  <si>
+    <t>00802327000187</t>
+  </si>
+  <si>
+    <t>01268580000912</t>
+  </si>
+  <si>
+    <t>02800327000173</t>
+  </si>
+  <si>
+    <t>02957518000739</t>
+  </si>
+  <si>
+    <t>03138212000128</t>
+  </si>
+  <si>
+    <t>03645657000102</t>
+  </si>
+  <si>
+    <t>03719063000190</t>
+  </si>
+  <si>
+    <t>05152395000161</t>
+  </si>
+  <si>
+    <t>06010666000107</t>
+  </si>
+  <si>
+    <t>06042467000180</t>
+  </si>
+  <si>
+    <t>06088741001981</t>
+  </si>
+  <si>
+    <t>06095896000116</t>
+  </si>
+  <si>
+    <t>06963916000476</t>
+  </si>
+  <si>
+    <t>07162028000840</t>
+  </si>
+  <si>
+    <t>07206816004374</t>
+  </si>
+  <si>
+    <t>07753705000200</t>
+  </si>
+  <si>
+    <t>08254832000570</t>
+  </si>
+  <si>
+    <t>08799506000114</t>
+  </si>
+  <si>
+    <t>09359577000916</t>
+  </si>
+  <si>
+    <t>09641405000183</t>
+  </si>
+  <si>
+    <t>10549481000142</t>
+  </si>
+  <si>
+    <t>10754617000156</t>
+  </si>
+  <si>
+    <t>11002575000160</t>
+  </si>
+  <si>
+    <t>11055046000124</t>
+  </si>
+  <si>
+    <t>11257856000163</t>
+  </si>
+  <si>
+    <t>12275456000143</t>
+  </si>
+  <si>
+    <t>14049467008387</t>
+  </si>
+  <si>
+    <t>14090403000183</t>
+  </si>
+  <si>
+    <t>14201645000105</t>
+  </si>
+  <si>
+    <t>14415001000101</t>
+  </si>
+  <si>
+    <t>14884186000101</t>
+  </si>
+  <si>
+    <t>15432378000131</t>
+  </si>
+  <si>
+    <t>16404287015691</t>
+  </si>
+  <si>
+    <t>16856929000157</t>
+  </si>
+  <si>
+    <t>16945778000103</t>
+  </si>
+  <si>
+    <t>17549681000225</t>
+  </si>
+  <si>
+    <t>17549681000306</t>
+  </si>
+  <si>
+    <t>19218032000196</t>
+  </si>
+  <si>
+    <t>23210312000559</t>
+  </si>
+  <si>
+    <t>23663916000127</t>
+  </si>
+  <si>
+    <t>24353832000150</t>
+  </si>
+  <si>
+    <t>24353832000230</t>
+  </si>
+  <si>
+    <t>26291381000107</t>
+  </si>
+  <si>
+    <t>27004186000103</t>
+  </si>
+  <si>
+    <t>27581558000164</t>
+  </si>
+  <si>
+    <t>30186940000188</t>
+  </si>
+  <si>
+    <t>30423129000335</t>
+  </si>
+  <si>
+    <t>30535575000250</t>
+  </si>
+  <si>
+    <t>31371249000803</t>
+  </si>
+  <si>
+    <t>34669943000123</t>
+  </si>
+  <si>
+    <t>34764799000104</t>
+  </si>
+  <si>
+    <t>37233567000118</t>
+  </si>
+  <si>
+    <t>38930624000342</t>
+  </si>
+  <si>
+    <t>38930624000423</t>
+  </si>
+  <si>
+    <t>40609459000101</t>
+  </si>
+  <si>
+    <t>41042521000199</t>
+  </si>
+  <si>
+    <t>43269904000120</t>
+  </si>
+  <si>
+    <t>44650901000102</t>
+  </si>
+  <si>
+    <t>44802528000150</t>
+  </si>
+  <si>
+    <t>46344354000588</t>
+  </si>
+  <si>
+    <t>46586034000100</t>
+  </si>
+  <si>
+    <t>47425731000142</t>
+  </si>
+  <si>
+    <t>49629777000109</t>
+  </si>
+  <si>
+    <t>50615144000120</t>
+  </si>
+  <si>
+    <t>51423358000168</t>
+  </si>
+  <si>
+    <t>51423358000672</t>
+  </si>
+  <si>
+    <t>51423358001210</t>
+  </si>
+  <si>
+    <t>51424133000207</t>
+  </si>
+  <si>
+    <t>51424133000398</t>
+  </si>
+  <si>
+    <t>52045188000198</t>
+  </si>
+  <si>
+    <t>52349826000164</t>
+  </si>
+  <si>
+    <t>52594636000102</t>
+  </si>
+  <si>
+    <t>53943098000187</t>
+  </si>
+  <si>
+    <t>54361290000985</t>
+  </si>
+  <si>
+    <t>56373319000117</t>
+  </si>
+  <si>
+    <t>56992951002192</t>
+  </si>
+  <si>
+    <t>57997306000181</t>
+  </si>
+  <si>
+    <t>58217384000189</t>
+  </si>
+  <si>
+    <t>58454222000407</t>
+  </si>
+  <si>
+    <t>58852518003230</t>
+  </si>
+  <si>
+    <t>59708737000530</t>
+  </si>
+  <si>
+    <t>59824649000170</t>
+  </si>
+  <si>
+    <t>60037058004390</t>
+  </si>
+  <si>
+    <t>60037058004552</t>
+  </si>
+  <si>
+    <t>60409075000667</t>
+  </si>
+  <si>
+    <t>60484470000108</t>
+  </si>
+  <si>
+    <t>60494416001883</t>
+  </si>
+  <si>
+    <t>60936663000144</t>
+  </si>
+  <si>
+    <t>61065199000392</t>
+  </si>
+  <si>
+    <t>61286236000120</t>
+  </si>
+  <si>
+    <t>62113482000143</t>
+  </si>
+  <si>
+    <t>62901210000108</t>
+  </si>
+  <si>
+    <t>63951933000184</t>
+  </si>
+  <si>
+    <t>66640095000116</t>
+  </si>
+  <si>
+    <t>67075473000129</t>
+  </si>
+  <si>
+    <t>67857961000198</t>
+  </si>
+  <si>
+    <t>68067446000410</t>
+  </si>
+  <si>
+    <t>68067446001149</t>
+  </si>
+  <si>
+    <t>68067446001220</t>
+  </si>
+  <si>
+    <t>71447049000135</t>
+  </si>
+  <si>
+    <t>72961568000260</t>
+  </si>
+  <si>
+    <t>73105041000205</t>
+  </si>
+  <si>
+    <t>74251919000275</t>
+  </si>
+  <si>
+    <t>74467457000147</t>
+  </si>
+  <si>
+    <t>74526278000133</t>
+  </si>
+  <si>
+    <t>74526278000486</t>
+  </si>
+  <si>
+    <t>76107762001125</t>
   </si>
 </sst>
 </file>
@@ -413,22 +737,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF6B6C-4133-4596-B71F-8DBE63AC8E12}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
